--- a/source-code/hasil penelitian/template analisa hyperparameter v2.xlsx
+++ b/source-code/hasil penelitian/template analisa hyperparameter v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024_BOPTN_Hopsot\source-code\hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D175AE-835E-4D00-BD82-BFEB8B531FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E6EE4-B1BD-43FD-A240-1B7729EB4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{901DD760-B074-4DED-940F-F55401FB8A94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{901DD760-B074-4DED-940F-F55401FB8A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Analisa Hyperparameter" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,16 +213,13 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,21 +536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEC0337-E944-4DCB-B848-3D7195A7B5B8}">
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="17" width="10.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
+    <col min="5" max="17" width="10.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -572,35 +569,35 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -650,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -679,7 +676,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>2</v>
@@ -709,7 +706,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -739,7 +736,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -769,7 +766,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -799,7 +796,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -829,7 +826,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -859,7 +856,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -889,7 +886,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -919,7 +916,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -949,7 +946,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -979,7 +976,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1009,7 +1006,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1039,7 +1036,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1069,7 +1066,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1099,7 +1096,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1129,7 +1126,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1159,7 +1156,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1189,7 +1186,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1219,7 +1216,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1249,7 +1246,7 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1279,7 +1276,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1309,7 +1306,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1339,7 +1336,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1369,7 +1366,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1399,7 +1396,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1429,7 +1426,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f>A29+1</f>
         <v>27</v>
@@ -1459,7 +1456,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1489,7 +1486,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1519,7 +1516,7 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1549,7 +1546,7 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1579,7 +1576,7 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1609,7 +1606,7 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1639,7 +1636,7 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1669,7 +1666,7 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1699,7 +1696,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1729,7 +1726,7 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1759,7 +1756,7 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1789,7 +1786,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1819,7 +1816,7 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1849,7 +1846,7 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1879,7 +1876,7 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1909,7 +1906,7 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1939,7 +1936,7 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1969,7 +1966,7 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1999,7 +1996,7 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2029,7 +2026,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2059,7 +2056,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2089,7 +2086,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2119,7 +2116,7 @@
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2149,7 +2146,7 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2179,7 +2176,7 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2209,7 +2206,7 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2239,7 +2236,7 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2269,7 +2266,7 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2299,7 +2296,7 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2329,7 +2326,7 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2359,7 +2356,7 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2389,7 +2386,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2419,7 +2416,7 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2449,7 +2446,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2479,7 +2476,7 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2509,7 +2506,7 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2539,7 +2536,7 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2569,7 +2566,7 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2599,7 +2596,7 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2629,7 +2626,7 @@
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>67</v>
@@ -2659,7 +2656,7 @@
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2689,7 +2686,7 @@
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2719,7 +2716,7 @@
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2749,7 +2746,7 @@
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2779,7 +2776,7 @@
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2809,7 +2806,7 @@
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2839,7 +2836,7 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2869,7 +2866,7 @@
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2899,7 +2896,7 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2929,7 +2926,7 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2959,7 +2956,7 @@
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2989,7 +2986,7 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3019,7 +3016,7 @@
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3049,7 +3046,7 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3079,7 +3076,7 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3109,7 +3106,7 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3139,7 +3136,7 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3169,7 +3166,7 @@
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3199,7 +3196,7 @@
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3229,7 +3226,7 @@
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3259,7 +3256,7 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3289,7 +3286,7 @@
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3319,7 +3316,7 @@
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3349,7 +3346,7 @@
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3379,7 +3376,7 @@
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3409,7 +3406,7 @@
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3439,7 +3436,7 @@
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3469,7 +3466,7 @@
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3499,7 +3496,7 @@
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3529,7 +3526,7 @@
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3559,7 +3556,7 @@
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3589,7 +3586,7 @@
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3619,7 +3616,7 @@
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3649,7 +3646,7 @@
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3679,7 +3676,7 @@
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -3709,7 +3706,7 @@
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -3739,7 +3736,7 @@
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -3769,7 +3766,7 @@
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -3799,7 +3796,7 @@
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -3829,7 +3826,7 @@
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -3859,7 +3856,7 @@
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -3889,7 +3886,7 @@
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -3919,7 +3916,7 @@
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -3949,7 +3946,7 @@
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -3979,7 +3976,7 @@
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4009,7 +4006,7 @@
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4039,7 +4036,7 @@
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4069,7 +4066,7 @@
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4099,7 +4096,7 @@
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4129,7 +4126,7 @@
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4159,7 +4156,7 @@
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4189,7 +4186,7 @@
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4219,7 +4216,7 @@
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4249,7 +4246,7 @@
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4279,7 +4276,7 @@
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4309,7 +4306,7 @@
       <c r="P125" s="12"/>
       <c r="Q125" s="12"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -4339,7 +4336,7 @@
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4369,7 +4366,7 @@
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -4399,7 +4396,7 @@
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4429,7 +4426,7 @@
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -4459,7 +4456,7 @@
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -4489,7 +4486,7 @@
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -4519,7 +4516,7 @@
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -4549,7 +4546,7 @@
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ref="A134:A197" si="2">A133+1</f>
         <v>131</v>
@@ -4579,7 +4576,7 @@
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -4609,7 +4606,7 @@
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -4639,7 +4636,7 @@
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -4669,7 +4666,7 @@
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -4699,7 +4696,7 @@
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -4729,7 +4726,7 @@
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -4759,7 +4756,7 @@
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -4789,7 +4786,7 @@
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -4819,7 +4816,7 @@
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -4849,7 +4846,7 @@
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -4879,7 +4876,7 @@
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -4909,7 +4906,7 @@
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -4939,7 +4936,7 @@
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -4969,7 +4966,7 @@
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -4999,7 +4996,7 @@
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5029,7 +5026,7 @@
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5059,7 +5056,7 @@
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5089,7 +5086,7 @@
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5119,7 +5116,7 @@
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5149,7 +5146,7 @@
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5179,7 +5176,7 @@
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5209,7 +5206,7 @@
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5239,7 +5236,7 @@
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5269,7 +5266,7 @@
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5299,7 +5296,7 @@
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5329,7 +5326,7 @@
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5359,7 +5356,7 @@
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5389,7 +5386,7 @@
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5419,7 +5416,7 @@
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5449,7 +5446,7 @@
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5479,7 +5476,7 @@
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5509,7 +5506,7 @@
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5539,7 +5536,7 @@
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5569,7 +5566,7 @@
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5599,7 +5596,7 @@
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5629,7 +5626,7 @@
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5659,7 +5656,7 @@
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5689,7 +5686,7 @@
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5719,7 +5716,7 @@
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5749,7 +5746,7 @@
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5779,7 +5776,7 @@
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5809,7 +5806,7 @@
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5839,7 +5836,7 @@
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5869,7 +5866,7 @@
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5899,7 +5896,7 @@
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5929,7 +5926,7 @@
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5959,7 +5956,7 @@
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5989,7 +5986,7 @@
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6019,7 +6016,7 @@
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6049,7 +6046,7 @@
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6079,7 +6076,7 @@
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6109,7 +6106,7 @@
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6139,7 +6136,7 @@
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6169,7 +6166,7 @@
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6199,7 +6196,7 @@
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6229,7 +6226,7 @@
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6259,7 +6256,7 @@
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6289,7 +6286,7 @@
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6319,7 +6316,7 @@
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6349,7 +6346,7 @@
       <c r="P193" s="12"/>
       <c r="Q193" s="12"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6379,7 +6376,7 @@
       <c r="P194" s="12"/>
       <c r="Q194" s="12"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6409,7 +6406,7 @@
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6439,7 +6436,7 @@
       <c r="P196" s="12"/>
       <c r="Q196" s="12"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -6469,7 +6466,7 @@
       <c r="P197" s="12"/>
       <c r="Q197" s="12"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ref="A198:A261" si="3">A197+1</f>
         <v>195</v>
@@ -6499,7 +6496,7 @@
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6529,7 +6526,7 @@
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6559,7 +6556,7 @@
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6589,7 +6586,7 @@
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6619,7 +6616,7 @@
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6649,7 +6646,7 @@
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6679,7 +6676,7 @@
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6709,7 +6706,7 @@
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6739,7 +6736,7 @@
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6769,7 +6766,7 @@
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6799,7 +6796,7 @@
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6829,7 +6826,7 @@
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6859,7 +6856,7 @@
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6889,7 +6886,7 @@
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6919,7 +6916,7 @@
       <c r="P212" s="12"/>
       <c r="Q212" s="12"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6949,7 +6946,7 @@
       <c r="P213" s="12"/>
       <c r="Q213" s="12"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6979,7 +6976,7 @@
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -7009,7 +7006,7 @@
       <c r="P215" s="12"/>
       <c r="Q215" s="12"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -7039,7 +7036,7 @@
       <c r="P216" s="12"/>
       <c r="Q216" s="12"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -7069,7 +7066,7 @@
       <c r="P217" s="12"/>
       <c r="Q217" s="12"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -7099,7 +7096,7 @@
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -7129,7 +7126,7 @@
       <c r="P219" s="12"/>
       <c r="Q219" s="12"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -7159,7 +7156,7 @@
       <c r="P220" s="12"/>
       <c r="Q220" s="12"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -7189,7 +7186,7 @@
       <c r="P221" s="12"/>
       <c r="Q221" s="12"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -7219,7 +7216,7 @@
       <c r="P222" s="12"/>
       <c r="Q222" s="12"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -7249,7 +7246,7 @@
       <c r="P223" s="12"/>
       <c r="Q223" s="12"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -7279,7 +7276,7 @@
       <c r="P224" s="12"/>
       <c r="Q224" s="12"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -7309,7 +7306,7 @@
       <c r="P225" s="12"/>
       <c r="Q225" s="12"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -7339,7 +7336,7 @@
       <c r="P226" s="12"/>
       <c r="Q226" s="12"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -7369,7 +7366,7 @@
       <c r="P227" s="12"/>
       <c r="Q227" s="12"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -7399,7 +7396,7 @@
       <c r="P228" s="12"/>
       <c r="Q228" s="12"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -7429,7 +7426,7 @@
       <c r="P229" s="12"/>
       <c r="Q229" s="12"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -7459,7 +7456,7 @@
       <c r="P230" s="12"/>
       <c r="Q230" s="12"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -7489,7 +7486,7 @@
       <c r="P231" s="12"/>
       <c r="Q231" s="12"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -7519,7 +7516,7 @@
       <c r="P232" s="12"/>
       <c r="Q232" s="12"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -7549,7 +7546,7 @@
       <c r="P233" s="12"/>
       <c r="Q233" s="12"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -7579,7 +7576,7 @@
       <c r="P234" s="12"/>
       <c r="Q234" s="12"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -7609,7 +7606,7 @@
       <c r="P235" s="12"/>
       <c r="Q235" s="12"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -7639,7 +7636,7 @@
       <c r="P236" s="12"/>
       <c r="Q236" s="12"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -7669,7 +7666,7 @@
       <c r="P237" s="12"/>
       <c r="Q237" s="12"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -7699,7 +7696,7 @@
       <c r="P238" s="12"/>
       <c r="Q238" s="12"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -7729,7 +7726,7 @@
       <c r="P239" s="12"/>
       <c r="Q239" s="12"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -7759,7 +7756,7 @@
       <c r="P240" s="12"/>
       <c r="Q240" s="12"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -7789,7 +7786,7 @@
       <c r="P241" s="12"/>
       <c r="Q241" s="12"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7819,7 +7816,7 @@
       <c r="P242" s="12"/>
       <c r="Q242" s="12"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7849,7 +7846,7 @@
       <c r="P243" s="12"/>
       <c r="Q243" s="12"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7879,7 +7876,7 @@
       <c r="P244" s="12"/>
       <c r="Q244" s="12"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -7909,7 +7906,7 @@
       <c r="P245" s="12"/>
       <c r="Q245" s="12"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7939,7 +7936,7 @@
       <c r="P246" s="12"/>
       <c r="Q246" s="12"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7969,7 +7966,7 @@
       <c r="P247" s="12"/>
       <c r="Q247" s="12"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7999,7 +7996,7 @@
       <c r="P248" s="12"/>
       <c r="Q248" s="12"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -8029,7 +8026,7 @@
       <c r="P249" s="12"/>
       <c r="Q249" s="12"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -8059,7 +8056,7 @@
       <c r="P250" s="12"/>
       <c r="Q250" s="12"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -8089,7 +8086,7 @@
       <c r="P251" s="12"/>
       <c r="Q251" s="12"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -8119,7 +8116,7 @@
       <c r="P252" s="12"/>
       <c r="Q252" s="12"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -8149,7 +8146,7 @@
       <c r="P253" s="12"/>
       <c r="Q253" s="12"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -8179,7 +8176,7 @@
       <c r="P254" s="12"/>
       <c r="Q254" s="12"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -8209,7 +8206,7 @@
       <c r="P255" s="12"/>
       <c r="Q255" s="12"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -8239,7 +8236,7 @@
       <c r="P256" s="12"/>
       <c r="Q256" s="12"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -8269,7 +8266,7 @@
       <c r="P257" s="12"/>
       <c r="Q257" s="12"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -8299,7 +8296,7 @@
       <c r="P258" s="12"/>
       <c r="Q258" s="12"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -8329,7 +8326,7 @@
       <c r="P259" s="12"/>
       <c r="Q259" s="12"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -8359,7 +8356,7 @@
       <c r="P260" s="12"/>
       <c r="Q260" s="12"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -8389,7 +8386,7 @@
       <c r="P261" s="12"/>
       <c r="Q261" s="12"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ref="A262:A325" si="4">A261+1</f>
         <v>259</v>
@@ -8419,7 +8416,7 @@
       <c r="P262" s="12"/>
       <c r="Q262" s="12"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -8449,7 +8446,7 @@
       <c r="P263" s="12"/>
       <c r="Q263" s="12"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -8479,7 +8476,7 @@
       <c r="P264" s="12"/>
       <c r="Q264" s="12"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -8509,7 +8506,7 @@
       <c r="P265" s="12"/>
       <c r="Q265" s="12"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -8539,7 +8536,7 @@
       <c r="P266" s="12"/>
       <c r="Q266" s="12"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -8569,7 +8566,7 @@
       <c r="P267" s="12"/>
       <c r="Q267" s="12"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -8599,7 +8596,7 @@
       <c r="P268" s="12"/>
       <c r="Q268" s="12"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -8629,7 +8626,7 @@
       <c r="P269" s="12"/>
       <c r="Q269" s="12"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -8659,7 +8656,7 @@
       <c r="P270" s="12"/>
       <c r="Q270" s="12"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -8689,7 +8686,7 @@
       <c r="P271" s="12"/>
       <c r="Q271" s="12"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -8719,7 +8716,7 @@
       <c r="P272" s="12"/>
       <c r="Q272" s="12"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -8749,7 +8746,7 @@
       <c r="P273" s="12"/>
       <c r="Q273" s="12"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -8779,7 +8776,7 @@
       <c r="P274" s="12"/>
       <c r="Q274" s="12"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -8809,7 +8806,7 @@
       <c r="P275" s="12"/>
       <c r="Q275" s="12"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -8839,7 +8836,7 @@
       <c r="P276" s="12"/>
       <c r="Q276" s="12"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -8869,7 +8866,7 @@
       <c r="P277" s="12"/>
       <c r="Q277" s="12"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -8899,7 +8896,7 @@
       <c r="P278" s="12"/>
       <c r="Q278" s="12"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -8929,7 +8926,7 @@
       <c r="P279" s="12"/>
       <c r="Q279" s="12"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -8959,7 +8956,7 @@
       <c r="P280" s="12"/>
       <c r="Q280" s="12"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -8989,7 +8986,7 @@
       <c r="P281" s="12"/>
       <c r="Q281" s="12"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -9019,7 +9016,7 @@
       <c r="P282" s="12"/>
       <c r="Q282" s="12"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -9049,7 +9046,7 @@
       <c r="P283" s="12"/>
       <c r="Q283" s="12"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -9079,7 +9076,7 @@
       <c r="P284" s="12"/>
       <c r="Q284" s="12"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -9109,7 +9106,7 @@
       <c r="P285" s="12"/>
       <c r="Q285" s="12"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -9139,7 +9136,7 @@
       <c r="P286" s="12"/>
       <c r="Q286" s="12"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -9169,7 +9166,7 @@
       <c r="P287" s="12"/>
       <c r="Q287" s="12"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -9199,7 +9196,7 @@
       <c r="P288" s="12"/>
       <c r="Q288" s="12"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -9229,7 +9226,7 @@
       <c r="P289" s="12"/>
       <c r="Q289" s="12"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -9259,7 +9256,7 @@
       <c r="P290" s="12"/>
       <c r="Q290" s="12"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -9289,7 +9286,7 @@
       <c r="P291" s="12"/>
       <c r="Q291" s="12"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -9319,7 +9316,7 @@
       <c r="P292" s="12"/>
       <c r="Q292" s="12"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -9349,7 +9346,7 @@
       <c r="P293" s="12"/>
       <c r="Q293" s="12"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -9379,7 +9376,7 @@
       <c r="P294" s="12"/>
       <c r="Q294" s="12"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -9409,7 +9406,7 @@
       <c r="P295" s="12"/>
       <c r="Q295" s="12"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -9439,7 +9436,7 @@
       <c r="P296" s="12"/>
       <c r="Q296" s="12"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -9469,7 +9466,7 @@
       <c r="P297" s="12"/>
       <c r="Q297" s="12"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -9499,7 +9496,7 @@
       <c r="P298" s="12"/>
       <c r="Q298" s="12"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -9529,7 +9526,7 @@
       <c r="P299" s="12"/>
       <c r="Q299" s="12"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -9559,7 +9556,7 @@
       <c r="P300" s="12"/>
       <c r="Q300" s="12"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -9589,7 +9586,7 @@
       <c r="P301" s="12"/>
       <c r="Q301" s="12"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -9619,7 +9616,7 @@
       <c r="P302" s="12"/>
       <c r="Q302" s="12"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -9649,7 +9646,7 @@
       <c r="P303" s="12"/>
       <c r="Q303" s="12"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -9679,7 +9676,7 @@
       <c r="P304" s="12"/>
       <c r="Q304" s="12"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -9709,7 +9706,7 @@
       <c r="P305" s="12"/>
       <c r="Q305" s="12"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -9739,7 +9736,7 @@
       <c r="P306" s="12"/>
       <c r="Q306" s="12"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -9769,7 +9766,7 @@
       <c r="P307" s="12"/>
       <c r="Q307" s="12"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -9799,7 +9796,7 @@
       <c r="P308" s="12"/>
       <c r="Q308" s="12"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -9829,7 +9826,7 @@
       <c r="P309" s="12"/>
       <c r="Q309" s="12"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -9859,7 +9856,7 @@
       <c r="P310" s="12"/>
       <c r="Q310" s="12"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -9889,7 +9886,7 @@
       <c r="P311" s="12"/>
       <c r="Q311" s="12"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -9919,7 +9916,7 @@
       <c r="P312" s="12"/>
       <c r="Q312" s="12"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -9949,7 +9946,7 @@
       <c r="P313" s="12"/>
       <c r="Q313" s="12"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -9979,7 +9976,7 @@
       <c r="P314" s="12"/>
       <c r="Q314" s="12"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -10009,7 +10006,7 @@
       <c r="P315" s="12"/>
       <c r="Q315" s="12"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -10039,7 +10036,7 @@
       <c r="P316" s="12"/>
       <c r="Q316" s="12"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -10069,7 +10066,7 @@
       <c r="P317" s="12"/>
       <c r="Q317" s="12"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -10099,7 +10096,7 @@
       <c r="P318" s="12"/>
       <c r="Q318" s="12"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -10129,7 +10126,7 @@
       <c r="P319" s="12"/>
       <c r="Q319" s="12"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -10159,7 +10156,7 @@
       <c r="P320" s="12"/>
       <c r="Q320" s="12"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -10189,7 +10186,7 @@
       <c r="P321" s="12"/>
       <c r="Q321" s="12"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -10219,7 +10216,7 @@
       <c r="P322" s="12"/>
       <c r="Q322" s="12"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -10249,7 +10246,7 @@
       <c r="P323" s="12"/>
       <c r="Q323" s="12"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -10279,7 +10276,7 @@
       <c r="P324" s="12"/>
       <c r="Q324" s="12"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -10309,7 +10306,7 @@
       <c r="P325" s="12"/>
       <c r="Q325" s="12"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ref="A326:A389" si="5">A325+1</f>
         <v>323</v>
@@ -10339,7 +10336,7 @@
       <c r="P326" s="12"/>
       <c r="Q326" s="12"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -10369,7 +10366,7 @@
       <c r="P327" s="12"/>
       <c r="Q327" s="12"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -10399,7 +10396,7 @@
       <c r="P328" s="12"/>
       <c r="Q328" s="12"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -10429,7 +10426,7 @@
       <c r="P329" s="12"/>
       <c r="Q329" s="12"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -10459,7 +10456,7 @@
       <c r="P330" s="12"/>
       <c r="Q330" s="12"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -10489,7 +10486,7 @@
       <c r="P331" s="12"/>
       <c r="Q331" s="12"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -10519,7 +10516,7 @@
       <c r="P332" s="12"/>
       <c r="Q332" s="12"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -10549,7 +10546,7 @@
       <c r="P333" s="12"/>
       <c r="Q333" s="12"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -10579,7 +10576,7 @@
       <c r="P334" s="12"/>
       <c r="Q334" s="12"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -10609,7 +10606,7 @@
       <c r="P335" s="12"/>
       <c r="Q335" s="12"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -10639,7 +10636,7 @@
       <c r="P336" s="12"/>
       <c r="Q336" s="12"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -10669,7 +10666,7 @@
       <c r="P337" s="12"/>
       <c r="Q337" s="12"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -10699,7 +10696,7 @@
       <c r="P338" s="12"/>
       <c r="Q338" s="12"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -10729,7 +10726,7 @@
       <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -10759,7 +10756,7 @@
       <c r="P340" s="12"/>
       <c r="Q340" s="12"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -10789,7 +10786,7 @@
       <c r="P341" s="12"/>
       <c r="Q341" s="12"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -10819,7 +10816,7 @@
       <c r="P342" s="12"/>
       <c r="Q342" s="12"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -10849,7 +10846,7 @@
       <c r="P343" s="12"/>
       <c r="Q343" s="12"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -10879,7 +10876,7 @@
       <c r="P344" s="12"/>
       <c r="Q344" s="12"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -10909,7 +10906,7 @@
       <c r="P345" s="12"/>
       <c r="Q345" s="12"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -10939,7 +10936,7 @@
       <c r="P346" s="12"/>
       <c r="Q346" s="12"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -10969,7 +10966,7 @@
       <c r="P347" s="12"/>
       <c r="Q347" s="12"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -10999,7 +10996,7 @@
       <c r="P348" s="12"/>
       <c r="Q348" s="12"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -11029,7 +11026,7 @@
       <c r="P349" s="12"/>
       <c r="Q349" s="12"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -11059,7 +11056,7 @@
       <c r="P350" s="12"/>
       <c r="Q350" s="12"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -11089,7 +11086,7 @@
       <c r="P351" s="12"/>
       <c r="Q351" s="12"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -11119,7 +11116,7 @@
       <c r="P352" s="12"/>
       <c r="Q352" s="12"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -11149,7 +11146,7 @@
       <c r="P353" s="12"/>
       <c r="Q353" s="12"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -11179,7 +11176,7 @@
       <c r="P354" s="12"/>
       <c r="Q354" s="12"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -11209,7 +11206,7 @@
       <c r="P355" s="12"/>
       <c r="Q355" s="12"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -11239,7 +11236,7 @@
       <c r="P356" s="12"/>
       <c r="Q356" s="12"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -11269,7 +11266,7 @@
       <c r="P357" s="12"/>
       <c r="Q357" s="12"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -11299,7 +11296,7 @@
       <c r="P358" s="12"/>
       <c r="Q358" s="12"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -11329,7 +11326,7 @@
       <c r="P359" s="12"/>
       <c r="Q359" s="12"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -11359,7 +11356,7 @@
       <c r="P360" s="12"/>
       <c r="Q360" s="12"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -11389,7 +11386,7 @@
       <c r="P361" s="12"/>
       <c r="Q361" s="12"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -11419,7 +11416,7 @@
       <c r="P362" s="12"/>
       <c r="Q362" s="12"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -11449,7 +11446,7 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="12"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -11479,7 +11476,7 @@
       <c r="P364" s="12"/>
       <c r="Q364" s="12"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -11509,7 +11506,7 @@
       <c r="P365" s="12"/>
       <c r="Q365" s="12"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -11539,7 +11536,7 @@
       <c r="P366" s="12"/>
       <c r="Q366" s="12"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -11569,7 +11566,7 @@
       <c r="P367" s="12"/>
       <c r="Q367" s="12"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -11599,7 +11596,7 @@
       <c r="P368" s="12"/>
       <c r="Q368" s="12"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -11629,7 +11626,7 @@
       <c r="P369" s="12"/>
       <c r="Q369" s="12"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -11659,7 +11656,7 @@
       <c r="P370" s="12"/>
       <c r="Q370" s="12"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -11689,7 +11686,7 @@
       <c r="P371" s="12"/>
       <c r="Q371" s="12"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -11719,7 +11716,7 @@
       <c r="P372" s="12"/>
       <c r="Q372" s="12"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -11749,7 +11746,7 @@
       <c r="P373" s="12"/>
       <c r="Q373" s="12"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -11779,7 +11776,7 @@
       <c r="P374" s="12"/>
       <c r="Q374" s="12"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -11809,7 +11806,7 @@
       <c r="P375" s="12"/>
       <c r="Q375" s="12"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -11839,7 +11836,7 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="12"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -11869,7 +11866,7 @@
       <c r="P377" s="12"/>
       <c r="Q377" s="12"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -11899,7 +11896,7 @@
       <c r="P378" s="12"/>
       <c r="Q378" s="12"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -11929,7 +11926,7 @@
       <c r="P379" s="12"/>
       <c r="Q379" s="12"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -11959,7 +11956,7 @@
       <c r="P380" s="12"/>
       <c r="Q380" s="12"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -11989,7 +11986,7 @@
       <c r="P381" s="12"/>
       <c r="Q381" s="12"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -12019,7 +12016,7 @@
       <c r="P382" s="12"/>
       <c r="Q382" s="12"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -12049,7 +12046,7 @@
       <c r="P383" s="12"/>
       <c r="Q383" s="12"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -12079,7 +12076,7 @@
       <c r="P384" s="12"/>
       <c r="Q384" s="12"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -12109,7 +12106,7 @@
       <c r="P385" s="12"/>
       <c r="Q385" s="12"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -12139,7 +12136,7 @@
       <c r="P386" s="12"/>
       <c r="Q386" s="12"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -12169,7 +12166,7 @@
       <c r="P387" s="12"/>
       <c r="Q387" s="12"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -12199,7 +12196,7 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="12"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -12229,9 +12226,9 @@
       <c r="P389" s="12"/>
       <c r="Q389" s="12"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f t="shared" ref="A390:A409" si="6">A389+1</f>
+        <f t="shared" ref="A390:A403" si="6">A389+1</f>
         <v>387</v>
       </c>
       <c r="B390" s="11" t="s">
@@ -12259,7 +12256,7 @@
       <c r="P390" s="12"/>
       <c r="Q390" s="12"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -12289,7 +12286,7 @@
       <c r="P391" s="12"/>
       <c r="Q391" s="12"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -12319,7 +12316,7 @@
       <c r="P392" s="12"/>
       <c r="Q392" s="12"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -12349,7 +12346,7 @@
       <c r="P393" s="12"/>
       <c r="Q393" s="12"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -12379,7 +12376,7 @@
       <c r="P394" s="12"/>
       <c r="Q394" s="12"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -12409,7 +12406,7 @@
       <c r="P395" s="12"/>
       <c r="Q395" s="12"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -12439,7 +12436,7 @@
       <c r="P396" s="12"/>
       <c r="Q396" s="12"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -12469,7 +12466,7 @@
       <c r="P397" s="12"/>
       <c r="Q397" s="12"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -12499,7 +12496,7 @@
       <c r="P398" s="12"/>
       <c r="Q398" s="12"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -12529,7 +12526,7 @@
       <c r="P399" s="12"/>
       <c r="Q399" s="12"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -12559,7 +12556,7 @@
       <c r="P400" s="12"/>
       <c r="Q400" s="12"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -12589,7 +12586,7 @@
       <c r="P401" s="12"/>
       <c r="Q401" s="12"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -12619,7 +12616,7 @@
       <c r="P402" s="12"/>
       <c r="Q402" s="12"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -12649,24 +12646,6 @@
       <c r="P403" s="12"/>
       <c r="Q403" s="12"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A404" s="18"/>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A405" s="18"/>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A406" s="18"/>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A407" s="18"/>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A408" s="18"/>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A409" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
